--- a/Installation/Installation.xlsx
+++ b/Installation/Installation.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="19560" windowHeight="8925" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Task1" sheetId="1" r:id="rId1"/>
+    <sheet name="inst master" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="51">
   <si>
     <t>ID</t>
   </si>
@@ -92,9 +92,6 @@
 4. Tap on the "install" button</t>
   </si>
   <si>
-    <t>Upgrade "Silpo" application</t>
-  </si>
-  <si>
     <t>Check that after upgrading an application saved user data</t>
   </si>
   <si>
@@ -116,32 +113,7 @@
     <t>1. The "Play Market" application should be opened
 2. The "Silpo" should be entered and displayed "Silpo" icon.
 3. The "Silpo" icon should be selected
-4. The program should be installed and his icon should be uninstalled from the desktop.</t>
-  </si>
-  <si>
-    <t>Precondition: 
-The "Silpo" applications should be installed with old version.
-Steps:
-1. Open "Play Market" application
-2. Enter "Silpo" in the search field
-3. Tap on the "Silpo" icon from the results
-4. Tap on the "upgrade" button</t>
-  </si>
-  <si>
-    <t>1. The "Play Market" application should be opened
-2. The "Silpo" should be entered and displayed "Silpo" icon.
-3. The "Silpo" icon should be selected
 4. The program should be updated</t>
-  </si>
-  <si>
-    <t>Precondition: 
-The "Silpo" applications should be installed, the user should be logged in in his account.
-Steps:
-1. Open "Play Market" application
-2. Enter "Silpo" in the search field
-3. Tap on the "Silpo" icon from the results
-4. Tap on the "upgrade" button
-5. Tap on the "Open" button</t>
   </si>
   <si>
     <t>1. The "Play Market" application should be opened
@@ -164,8 +136,118 @@
 8. The program "Notepad++" should be opened on the "change.log" tab.</t>
   </si>
   <si>
+    <t>1. The "Notepad++" should be opened
+2. The "Notepad Update" widow should be displayed with message "An update package is available, do you want to download it?"
+3. The "Yes" button should be pressed
+4. The "Notepad Update" widow should be displayed with message "Notepad++ is opened. Update will close it in order to process the installation. Continue?"
+5. The "Yes" button should be pressed
+6. The language should be selected (e.g. English)
+7. The "Next" button should be pressed
+8. The "I Agree" button should be pressed
+9. The "Destination Folder" should be selected (e.g. C:\Program Files\Notepad++) and the "Next" button should be pressed
+10. The type of install should be selected (e.g. Custom) and click "Next"
+11. The installation should be started
+12. The program "Notepad++" should be opened on the "change.log" tab.</t>
+  </si>
+  <si>
+    <t>1. The "Notepad++" should be opened (e.g. on the "Text" tab with user name: Anatolii)
+2. The "Notepad Update" widow should be displayed with message "An update package is available, do you want to download it?"
+3. The "Yes" button should be pressed
+4. The "Notepad Update" widow should be displayed with message "Notepad++ is opened. Update will close it in order to process the installation. Continue?"
+5. The "Yes" button should be pressed
+6. The language should be selected (e.g. English)
+7. The "Next" button should be pressed
+8. The "I Agree" button should be pressed
+9. The "Destination Folder" should be selected (e.g. C:\Program Files\Notepad++) and the "Next" button should be pressed
+10. The type of install should be selected (e.g. Custom) and click "Next"
+11. The installation should be started
+12. The program "Notepad++" should be opened on the "change.log" tab.
+13. The "Text" tab should be open with information without any changes (e.g. Anatolii)</t>
+  </si>
+  <si>
+    <t>Preconditions:
+The "Notepad++" is not installed on the desktop. The "Notepad++.exe" is downloaded on the desktop. 
+Steps:
+1. Open the "Notepad++.exe" program.
+2. Select a language in the "Installed language" window (e.g. English)
+3. Click on the "Next" button.
+4. Click on the "I Agree" button
+5. Select "Destination Folder" (e.g. C:\Program Files\Notepad++) and click on the "Next" button.
+6. Select of the type of install (e.g. Custom) and click "Next"
+7. Click "Install" button
+8. Click "Finish" button</t>
+  </si>
+  <si>
+    <t>Enviroument</t>
+  </si>
+  <si>
+    <t>OS: Android 7.1.2
+Phone: Xiaomi Redmi 5</t>
+  </si>
+  <si>
+    <t>OS: Windows 10x64 Enterprise</t>
+  </si>
+  <si>
+    <t>Full installation process</t>
+  </si>
+  <si>
+    <t>Recommended installation process</t>
+  </si>
+  <si>
+    <t>Custom installation process</t>
+  </si>
+  <si>
+    <t>Minimum installation process</t>
+  </si>
+  <si>
+    <t>Preconditions:
+The VLC is not installed on the PC. The "VLC.exe" is downloaded on the PC
+Steps:
+1. Start Installer.
+2. Select Full in Setup Type dialog.
+3. Proceed with Full installation to complete.</t>
+  </si>
+  <si>
+    <t>Preconditions:
+The VLC is not installed on the PC. The "VLC.exe" is downloaded on the PC
+Steps:
+1. Start Installer.
+2. Select Minimum in Setup Type dialog.
+3. Proceed with Full installation to complete.</t>
+  </si>
+  <si>
+    <t>Preconditions:
+The VLC is not installed on the PC. The "VLC.exe" is downloaded on the PC
+Steps:
+1. Start Installer.
+2. Select Recommended in Setup Type dialog.
+3. Proceed with Full installation to complete.</t>
+  </si>
+  <si>
+    <t>Preconditions:
+The VLC is not installed on the PC. The "VLC.exe" is downloaded on the PC
+Steps:
+1. Start Installer.
+2. Select Custom in Setup Type dialog.
+3. Proceed with Full installation to complete.</t>
+  </si>
+  <si>
+    <t>Environment</t>
+  </si>
+  <si>
+    <t>1. The "Run" window should be opened.
+2. The "Control Panel" window should be opened
+3. The "Programs and Features" window should be opened
+4. The "Notepad++ Uninstall" window should be opened.
+5. The "Uninstall" button should be pressed
+5. The "Finish" button should be pressed and the "Notepad++" should be deleted from the PC</t>
+  </si>
+  <si>
+    <t>Uninstallation "Notepad++" application</t>
+  </si>
+  <si>
     <t>Precondition: 
-The "Silpo" applications should be installed with old version.
+The "Notepad++" applications should be installed with old version.
 Steps:
 1. Open "Notepad++"
 2. The "Notepad Update" widow displayed with message "An update package is available, do you want to download it?"
@@ -181,22 +263,36 @@
 12. Click "Finish" button</t>
   </si>
   <si>
-    <t>1. The "Notepad++" should be opened
-2. The "Notepad Update" widow should be displayed with message "An update package is available, do you want to download it?"
-3. The "Yes" button should be pressed
-4. The "Notepad Update" widow should be displayed with message "Notepad++ is opened. Update will close it in order to process the installation. Continue?"
-5. The "Yes" button should be pressed
-6. The language should be selected (e.g. English)
-7. The "Next" button should be pressed
-8. The "I Agree" button should be pressed
-9. The "Destination Folder" should be selected (e.g. C:\Program Files\Notepad++) and the "Next" button should be pressed
-10. The type of install should be selected (e.g. Custom) and click "Next"
-11. The installation should be started
-12. The program "Notepad++" should be opened on the "change.log" tab.</t>
+    <t>Update "Silpo" application</t>
   </si>
   <si>
     <t>Precondition: 
-The "Notepad" program should be installed with old version. The user name is entered in the file (e.g. "Text.txt" with user name: Anatolii).
+The "Silpo" applications should be installed with old version.
+Steps:
+1. Open "Play Market" application
+2. Enter "Silpo" in the search field
+3. Tap on the "Silpo" icon from the results
+4. Tap on the "Update" button</t>
+  </si>
+  <si>
+    <t>Check that after updating an application saved user data</t>
+  </si>
+  <si>
+    <t>Precondition: 
+The "Silpo" applications should be installed, the user should be logged in in his account.
+Steps:
+1. Open "Play Market" application
+2. Enter "Silpo" in the search field
+3. Tap on the "Silpo" icon from the results
+4. Tap on the "Update" button
+5. Tap on the "Open" button</t>
+  </si>
+  <si>
+    <t>Update "Notepad++" application</t>
+  </si>
+  <si>
+    <t>Precondition: 
+The "Notepad++" program should be installed with old version. The user name is entered in the text file (e.g. "Text.txt" with user name: Anatolii).
 Steps:
 1. Open the file with "Notepad++" (e.g. "Text.txt" with user name: Anatolii).
 2. The "Notepad Update" widow displayed with message "An update package is available, do you want to download it?"
@@ -213,141 +309,44 @@
 13. Click on the "Text" tab</t>
   </si>
   <si>
-    <t>1. The "Notepad++" should be opened (e.g. on the "Text" tab with user name: Anatolii)
-2. The "Notepad Update" widow should be displayed with message "An update package is available, do you want to download it?"
-3. The "Yes" button should be pressed
-4. The "Notepad Update" widow should be displayed with message "Notepad++ is opened. Update will close it in order to process the installation. Continue?"
-5. The "Yes" button should be pressed
-6. The language should be selected (e.g. English)
-7. The "Next" button should be pressed
-8. The "I Agree" button should be pressed
-9. The "Destination Folder" should be selected (e.g. C:\Program Files\Notepad++) and the "Next" button should be pressed
-10. The type of install should be selected (e.g. Custom) and click "Next"
-11. The installation should be started
-12. The program "Notepad++" should be opened on the "change.log" tab.
-13. The "Text" tab should be open with information without any changes (e.g. Anatolii)</t>
-  </si>
-  <si>
-    <t>Preconditions:
-The "Notepad++" is not installed on the desktop. The "Notepad++.exe" is downloaded on the desktop. 
-Steps:
-1. Open the "Notepad++.exe" program.
-2. Select a language in the "Installed language" window (e.g. English)
-3. Click on the "Next" button.
-4. Click on the "I Agree" button
-5. Select "Destination Folder" (e.g. C:\Program Files\Notepad++) and click on the "Next" button.
-6. Select of the type of install (e.g. Custom) and click "Next"
-7. Click "Install" button
-8. Click "Finish" button</t>
-  </si>
-  <si>
     <t>Preconditions:
 The "Notepad++" is installed on the desktop.
 Steps:
 1. Press "Windows+R" on the keyboard.
-2. Endet "Control Panel" and press "OK" button
+2. Enter "Control Panel" and press "OK" button
 3. Select "Programs and Features"
-4. Select "Notepad++" and press on the "Unistall" button
-5. Press on the "Unistall" button in the "Notpad++ Unistall" window.
+4. Select "Notepad++" and press on the "Uninstall" button
+5. Press on the "Uninstall" button in the "Notepad++ Uninstall" window.
 5. Press on the "Finish" button</t>
   </si>
   <si>
-    <t>1. The "Run" window should be opened.
-2. The "Control Panel" window should be opened
-3. The "Programs and Features" window should be opened
-4. The "Notpad++ Unistall" window should be opened.
-5. The "Unistall" button should be pressed
-5. The "Finish" button should be pressed and the "Notepad++" should be deleted from the PC</t>
-  </si>
-  <si>
-    <t>Enviroument</t>
-  </si>
-  <si>
-    <t>OS: Android 7.1.2
-Phone: Xiaomi Redmi 5</t>
-  </si>
-  <si>
-    <t>OS: Android 7.1.2
-Phone: Xiaomi Redmi 6</t>
-  </si>
-  <si>
-    <t>OS: Android 7.1.2
-Phone: Xiaomi Redmi 7</t>
-  </si>
-  <si>
-    <t>OS: Android 7.1.2
-Phone: Xiaomi Redmi 8</t>
-  </si>
-  <si>
-    <t>OS: Windows 10x64 Enterprise</t>
-  </si>
-  <si>
-    <t>Full installation process</t>
-  </si>
-  <si>
-    <t>Recommended installation process</t>
-  </si>
-  <si>
-    <t>Custom installation process</t>
-  </si>
-  <si>
-    <t>Minimum installation process</t>
-  </si>
-  <si>
-    <t>Preconditions:
-The VLC is not installed on the PC. The "VLC.exe" is downloaded on the PC
-Steps:
-1. Start Installer.
-2. Select Full in Setup Type dialog.
-3. Proceed with Full installation to complete.</t>
+    <t>1. The installer should be started
+2. The "Custom" should be selected in the "Setup Type dialog".
+3. The product should be installed properly without any error message. 
+The product icons should be created on both desktop and the Start menu.</t>
+  </si>
+  <si>
+    <t>1. The installer should be started
+2. The "Recommended" should be selected in the "Setup Type dialog".
+3. The product should be installed properly without any error message. The product icons should be created on both desktop and the Start menu.</t>
   </si>
   <si>
     <t>1. The installer should be started
 2. The "Full" should be selected in the "Setup Type dialog".
-3. The product can be installed properly without any error message. 
-The product icons can be created on both desktop and the Start menu.</t>
-  </si>
-  <si>
-    <t>Preconditions:
-The VLC is not installed on the PC. The "VLC.exe" is downloaded on the PC
-Steps:
-1. Start Installer.
-2. Select Recomended in Setup Type dialog.
-3. Proceed with Full installation to complete.</t>
-  </si>
-  <si>
-    <t>1. The installer should be started
-2. The "Recomended" should be selected in the "Setup Type dialog".
-3. The product can be installed properly without any error message. 
-The product icons can be created on both desktop and the Start menu.</t>
-  </si>
-  <si>
-    <t>Preconditions:
-The VLC is not installed on the PC. The "VLC.exe" is downloaded on the PC
-Steps:
-1. Start Installer.
-2. Select Custopm in Setup Type dialog.
-3. Proceed with Full installation to complete.</t>
-  </si>
-  <si>
-    <t>1. The installer should be started
-2. The "Custom" should be selected in the "Setup Type dialog".
-3. The product can be installed properly without any error message. 
-The product icons can be created on both desktop and the Start menu.</t>
-  </si>
-  <si>
-    <t>Preconditions:
-The VLC is not installed on the PC. The "VLC.exe" is downloaded on the PC
-Steps:
-1. Start Installer.
-2. Select Minimum in Setup Type dialog.
-3. Proceed with Full installation to complete.</t>
+3. The product should be installed properly without any error message. 
+The product icons should be created on both desktop and the Start menu.</t>
   </si>
   <si>
     <t>1. The installer should be started
 2. The "Minimum" should be selected in the "Setup Type dialog".
-3. The product can be installed properly without any error message. 
-The product icons can be created on both desktop and the Start menu.</t>
+3. The product should be installed properly without any error message. 
+The product icons should be created on both desktop and the Start menu.</t>
+  </si>
+  <si>
+    <t>1. The "Play Market" application should be opened
+2. The "Silpo" should be entered and displayed "Silpo" icon.
+3. The "Silpo" icon should be selected
+4. The program should be uninstalled and his icon should be uninstalled from the desktop.</t>
   </si>
 </sst>
 </file>
@@ -749,8 +748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -788,7 +787,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="150" x14ac:dyDescent="0.25">
@@ -802,7 +801,7 @@
         <v>13</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>7</v>
@@ -814,7 +813,7 @@
         <v>8</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="150" x14ac:dyDescent="0.25">
@@ -825,10 +824,10 @@
         <v>12</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>7</v>
@@ -840,21 +839,21 @@
         <v>8</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>7</v>
@@ -866,21 +865,21 @@
         <v>8</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>7</v>
@@ -892,7 +891,7 @@
         <v>8</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="270" x14ac:dyDescent="0.25">
@@ -900,13 +899,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>29</v>
-      </c>
       <c r="D6" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>7</v>
@@ -918,7 +917,7 @@
         <v>8</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="210" x14ac:dyDescent="0.25">
@@ -926,13 +925,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>7</v>
@@ -944,7 +943,7 @@
         <v>8</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="405" x14ac:dyDescent="0.25">
@@ -952,13 +951,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>7</v>
@@ -970,7 +969,7 @@
         <v>8</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
@@ -978,13 +977,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>7</v>
@@ -996,7 +995,7 @@
         <v>8</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1017,8 +1016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:H9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1056,7 +1055,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="120" x14ac:dyDescent="0.25">
@@ -1064,13 +1063,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>7</v>
@@ -1082,21 +1081,21 @@
         <v>8</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>7</v>
@@ -1108,7 +1107,7 @@
         <v>8</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="120" x14ac:dyDescent="0.25">
@@ -1116,13 +1115,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>47</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>7</v>
@@ -1134,7 +1133,7 @@
         <v>8</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="120" x14ac:dyDescent="0.25">
@@ -1142,10 +1141,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>49</v>
@@ -1160,7 +1159,7 @@
         <v>8</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Installation/Installation.xlsx
+++ b/Installation/Installation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="19560" windowHeight="8925" activeTab="1"/>
+    <workbookView xWindow="2790" yWindow="0" windowWidth="19560" windowHeight="8925" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Task1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="54">
   <si>
     <t>ID</t>
   </si>
@@ -198,38 +198,6 @@
   </si>
   <si>
     <t>Minimum installation process</t>
-  </si>
-  <si>
-    <t>Preconditions:
-The VLC is not installed on the PC. The "VLC.exe" is downloaded on the PC
-Steps:
-1. Start Installer.
-2. Select Full in Setup Type dialog.
-3. Proceed with Full installation to complete.</t>
-  </si>
-  <si>
-    <t>Preconditions:
-The VLC is not installed on the PC. The "VLC.exe" is downloaded on the PC
-Steps:
-1. Start Installer.
-2. Select Minimum in Setup Type dialog.
-3. Proceed with Full installation to complete.</t>
-  </si>
-  <si>
-    <t>Preconditions:
-The VLC is not installed on the PC. The "VLC.exe" is downloaded on the PC
-Steps:
-1. Start Installer.
-2. Select Recommended in Setup Type dialog.
-3. Proceed with Full installation to complete.</t>
-  </si>
-  <si>
-    <t>Preconditions:
-The VLC is not installed on the PC. The "VLC.exe" is downloaded on the PC
-Steps:
-1. Start Installer.
-2. Select Custom in Setup Type dialog.
-3. Proceed with Full installation to complete.</t>
   </si>
   <si>
     <t>Environment</t>
@@ -320,33 +288,124 @@
 5. Press on the "Finish" button</t>
   </si>
   <si>
-    <t>1. The installer should be started
-2. The "Custom" should be selected in the "Setup Type dialog".
-3. The product should be installed properly without any error message. 
-The product icons should be created on both desktop and the Start menu.</t>
-  </si>
-  <si>
-    <t>1. The installer should be started
-2. The "Recommended" should be selected in the "Setup Type dialog".
-3. The product should be installed properly without any error message. The product icons should be created on both desktop and the Start menu.</t>
-  </si>
-  <si>
-    <t>1. The installer should be started
-2. The "Full" should be selected in the "Setup Type dialog".
-3. The product should be installed properly without any error message. 
-The product icons should be created on both desktop and the Start menu.</t>
-  </si>
-  <si>
-    <t>1. The installer should be started
-2. The "Minimum" should be selected in the "Setup Type dialog".
-3. The product should be installed properly without any error message. 
-The product icons should be created on both desktop and the Start menu.</t>
-  </si>
-  <si>
     <t>1. The "Play Market" application should be opened
 2. The "Silpo" should be entered and displayed "Silpo" icon.
 3. The "Silpo" icon should be selected
 4. The program should be uninstalled and his icon should be uninstalled from the desktop.</t>
+  </si>
+  <si>
+    <t>Preconditions:
+The VLC is not installed on the PC. The "VLC.exe" is downloaded on the PC
+Steps:
+1. Start Installer.
+2. Select a language in the "Installer Language" window (e.g. English) and click "Next" button.
+3. Click "Next" button in the "Welcome to VLC media player Setup" window
+4. Click "Next" button in the "License Agreement" window
+5. In the "Choose Components" window select "Full" type of install from drop-down "Select the type of install".
+6. Click "Next" button
+7. Enter path to destination folder in the "Destination Folder" field (e.g. C:\Program Files (x86)\VideoLAN\VLC) and click on the "Install" button.
+8. Click "Finish" button</t>
+  </si>
+  <si>
+    <t>Preconditions:
+The VLC is not installed on the PC. The "VLC.exe" is downloaded on the PC
+Steps:
+1. Start Installer.
+2. Select a language in the "Installer Language" window (e.g. English) and click "Next" button.
+3. Click "Next" button in the "Welcome to VLC media player Setup" window
+4. Click "Next" button in the "License Agreement" window
+5. In the "Choose Components" window select "Recommended" type of install from drop-down "Select the type of install".
+6. Click "Next" button
+7. Enter path to destination folder in the "Destination Folder" field (e.g. C:\Program Files (x86)\VideoLAN\VLC) and click on the "Install" button.
+8. Click "Finish" button</t>
+  </si>
+  <si>
+    <t>Preconditions:
+The VLC is not installed on the PC. The "VLC.exe" is downloaded on the PC
+Steps:
+1. Start Installer.
+2. Select a language in the "Installer Language" window (e.g. English) and click "Next" button.
+3. Click "Next" button in the "Welcome to VLC media player Setup" window
+4. Click "Next" button in the "License Agreement" window
+5. In the "Choose Components" window select "Minimum" type of install from drop-down "Select the type of install".
+6. Click "Next" button
+7. Enter path to destination folder in the "Destination Folder" field (e.g. C:\Program Files (x86)\VideoLAN\VLC) and click on the "Install" button.
+8. Click "Finish" button</t>
+  </si>
+  <si>
+    <t>1. "Installer Language" window should be opened.
+2. "Welcome to VLC media player Setup" should be opened on English.
+3. "License Agreement" window should be opened.
+4. "Choose Components" window should be opened.
+5. The "Recommended" item should be selected in the "Select the type of install" field. All checkboxes in the components area should be selected.
+6. "Choose Install Location" window should be opened.
+7. "Installing" window should be opened. The product should be installed properly without any error message in the destination folder. The product icons should be created on both desktop and the Start menu.
+8. "VLC media Player" should be opened</t>
+  </si>
+  <si>
+    <t>1. "Installer Language" window should be opened.
+2. "Welcome to VLC media player Setup" should be opened on English.
+3. "License Agreement" window should be opened.
+4. "Choose Components" window should be opened.
+5. The "Full" item should be selected in the "Select the type of install" field. All checkboxes in the components area should be selected.
+6. "Choose Install Location" window should be opened.
+7. "Installing" window should be opened. The product should be installed properly without any error message in the destination folder. The product icons should be created on both desktop and the Start menu.
+8. "VLC media Player" should be opened</t>
+  </si>
+  <si>
+    <t>1. "Installer Language" window should be opened.
+2. "Welcome to VLC media player Setup" should be opened on English.
+3. "License Agreement" window should be opened.
+4. "Choose Components" window should be opened.
+5. The "Minimum" item should be selected in the "Select the type of install" field. Only "Start Menu Shortcut", "Desktop Shortcut" and "Discs Playback" checkboxes in the components area should be selected.
+6. "Choose Install Location" window should be opened.
+7. "Installing" window should be opened. The product should be installed properly without any error message in the destination folder. The product icons should be created on both desktop and the Start menu.
+8. "VLC media Player" should be opened</t>
+  </si>
+  <si>
+    <t>1. "Installer Language" window should be opened.
+2. "Welcome to VLC media player Setup" should be opened on English.
+3. "License Agreement" window should be opened.
+4. "Choose Components" window should be opened.
+5. "Select the type of install" field should be "Custom".
+6. "Choose Install Location" window should be opened.
+7. "Installing" window should be opened. The product should be installed properly without any error message in the destination folder. The product icons should be created on both desktop and the Start menu.
+8. "VLC media Player" should be opened</t>
+  </si>
+  <si>
+    <t>Preconditions:
+The VLC is not installed on the PC. The "VLC.exe" is downloaded on the PC
+Steps:
+1. Start Installer.
+2. Select a language in the "Installer Language" window (e.g. English) and click "Next" button.
+3. Click "Next" button in the "Welcome to VLC media player Setup" window
+4. Click "Next" button in the "License Agreement" window
+5. Select any Items from the "Optional components" area. (e.g. "Desktop Shortcut" and "Web plugins")
+6. Click "Next" button
+7. Enter path to destination folder in the "Destination Folder" field (e.g. C:\Program Files (x86)\VideoLAN\VLC) and click on the "Install" button.
+8. Click "Finish" button</t>
+  </si>
+  <si>
+    <t>Reinstallation process</t>
+  </si>
+  <si>
+    <t>1. "Welcome to VLC media player Setup" should be opened.
+2. "Already Installed" window should be opened.
+3. "Choose Components" window should be opened.
+4. The "Full" item should be selected in the "Select the type of install" field. All checkboxes in the components area should be selected.
+5. "Installing" window should be opened. The product should be installed properly without any error message in the destination folder. The product icons should be created on both desktop and the Start menu.
+6. "VLC media Player" should be opened</t>
+  </si>
+  <si>
+    <t>Preconditions:
+The VLC installed on the PC. The "VLC.exe" is downloaded on the PC
+Steps:
+1. Start Installer.
+2. Click "Next" button in the "Welcome to VLC media player Setup" window
+3. Select "Add/Remove/Reinstall components" radio button in the "Already Installed" window and click on the "Next" button.
+4. In the "Choose Components" window select "Full" type of install from drop-down "Select the type of install".
+5. Click "Next" button
+6. Click "Finish" button</t>
   </si>
 </sst>
 </file>
@@ -428,7 +487,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -465,6 +524,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -748,8 +810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -827,7 +889,7 @@
         <v>16</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>7</v>
@@ -847,10 +909,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>17</v>
@@ -873,10 +935,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>18</v>
@@ -925,13 +987,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>7</v>
@@ -951,10 +1013,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>21</v>
@@ -980,7 +1042,7 @@
         <v>14</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>22</v>
@@ -1016,18 +1078,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" customWidth="1"/>
-    <col min="2" max="2" width="36.5703125" customWidth="1"/>
-    <col min="3" max="3" width="39" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="61.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.7109375" customWidth="1"/>
+    <col min="4" max="4" width="61.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="28.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1055,10 +1117,10 @@
         <v>6</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="270" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -1066,10 +1128,10 @@
         <v>27</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>7</v>
@@ -1084,7 +1146,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="285" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -1092,10 +1154,10 @@
         <v>28</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>7</v>
@@ -1110,7 +1172,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="270" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -1118,10 +1180,10 @@
         <v>29</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>7</v>
@@ -1136,7 +1198,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="270" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -1144,10 +1206,10 @@
         <v>30</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>7</v>
@@ -1162,7 +1224,32 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
+        <v>5</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="3">
+        <v>43379.391666782409</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
     <row r="9" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>10</v>
@@ -1180,5 +1267,6 @@
     <mergeCell ref="A9:H9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>